--- a/hardware/uob-hep-pc068a-cryosub/cryosub_power_converter_top_v03/cryosub_power_converter_top_bom_v03.xlsx
+++ b/hardware/uob-hep-pc068a-cryosub/cryosub_power_converter_top_v03/cryosub_power_converter_top_bom_v03.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/phdgc/Documents/DUNE/cryosub/hardware/uob-hep-pc068a-cryosub/cryosub_power_converter_top_v03/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CD3F178-0EBE-DF45-A6DA-EAA46F1B750F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{818D1CB3-4AA2-8B47-913E-E748ED156772}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1080" yWindow="2860" windowWidth="27240" windowHeight="15020" xr2:uid="{7AE3736D-B4A5-1241-AD38-3A07FD10F958}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="ExternalData_1" localSheetId="0" hidden="1">cryosub_power_converter_top_bom!$A$1:$H$28</definedName>
+    <definedName name="ExternalData_1" localSheetId="0" hidden="1">cryosub_power_converter_top_bom!$A$1:$I$28</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="98">
   <si>
     <t>Id</t>
   </si>
@@ -337,6 +337,9 @@
   </si>
   <si>
     <t>Coilcraft PFL1609-102MEW , Farnell 2288736</t>
+  </si>
+  <si>
+    <t>Do Not Fit?</t>
   </si>
 </sst>
 </file>
@@ -405,7 +408,10 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="7">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -455,8 +461,8 @@
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="ExternalData_1" connectionId="1" xr16:uid="{61ECED6C-A6D2-EF45-BE0A-FAC4AA47ED93}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
-  <queryTableRefresh preserveSortFilterLayout="0" nextId="12">
-    <queryTableFields count="8">
+  <queryTableRefresh preserveSortFilterLayout="0" nextId="13">
+    <queryTableFields count="9">
       <queryTableField id="1" name="Id" tableColumnId="1"/>
       <queryTableField id="2" name="Designator" tableColumnId="2"/>
       <queryTableField id="3" name="Package" tableColumnId="3"/>
@@ -464,6 +470,7 @@
       <queryTableField id="5" name="Designation" tableColumnId="5"/>
       <queryTableField id="9" dataBound="0" tableColumnId="10"/>
       <queryTableField id="11" dataBound="0" tableColumnId="12"/>
+      <queryTableField id="12" dataBound="0" tableColumnId="13"/>
       <queryTableField id="6" name="Supplier and ref" tableColumnId="6"/>
     </queryTableFields>
     <queryTableDeletedFields count="2">
@@ -475,17 +482,18 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{27CE9B0F-FA75-ED48-B8D2-7038F61E4C93}" name="cryosub_power_converter_top_bom_v03" displayName="cryosub_power_converter_top_bom_v03" ref="A1:H28" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:H28" xr:uid="{27CE9B0F-FA75-ED48-B8D2-7038F61E4C93}"/>
-  <tableColumns count="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{27CE9B0F-FA75-ED48-B8D2-7038F61E4C93}" name="cryosub_power_converter_top_bom_v03" displayName="cryosub_power_converter_top_bom_v03" ref="A1:I28" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:I28" xr:uid="{27CE9B0F-FA75-ED48-B8D2-7038F61E4C93}"/>
+  <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{79417884-0A93-AC47-8703-9998164E22CC}" uniqueName="1" name="Id" queryTableFieldId="1"/>
-    <tableColumn id="2" xr3:uid="{FA2251ED-C90D-AD4C-8043-CC17D76715CC}" uniqueName="2" name="Designator" queryTableFieldId="2" dataDxfId="5"/>
-    <tableColumn id="3" xr3:uid="{BBB3F0B3-A8B1-E64B-901A-189D8739D3C4}" uniqueName="3" name="Package" queryTableFieldId="3" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{FA2251ED-C90D-AD4C-8043-CC17D76715CC}" uniqueName="2" name="Designator" queryTableFieldId="2" dataDxfId="6"/>
+    <tableColumn id="3" xr3:uid="{BBB3F0B3-A8B1-E64B-901A-189D8739D3C4}" uniqueName="3" name="Package" queryTableFieldId="3" dataDxfId="5"/>
     <tableColumn id="4" xr3:uid="{F44F3A65-FCDB-9E49-9E2A-FF686D828F6E}" uniqueName="4" name="Quantity" queryTableFieldId="4"/>
-    <tableColumn id="5" xr3:uid="{26F62BC6-1A08-B246-8426-E5B9F5F54922}" uniqueName="5" name="Description" queryTableFieldId="5" dataDxfId="3"/>
-    <tableColumn id="10" xr3:uid="{D1AB233E-C6E9-D54E-B071-461EE244BFB9}" uniqueName="10" name="Part Number" queryTableFieldId="9" dataDxfId="1"/>
-    <tableColumn id="12" xr3:uid="{293B0DE3-5DB9-1A46-B723-524F43C07AEA}" uniqueName="12" name="Technology" queryTableFieldId="11" dataDxfId="0"/>
-    <tableColumn id="6" xr3:uid="{3A9D6906-A01C-C843-B1BD-6DA0D752C686}" uniqueName="6" name="Supplier" queryTableFieldId="6" dataDxfId="2"/>
+    <tableColumn id="5" xr3:uid="{26F62BC6-1A08-B246-8426-E5B9F5F54922}" uniqueName="5" name="Description" queryTableFieldId="5" dataDxfId="4"/>
+    <tableColumn id="10" xr3:uid="{D1AB233E-C6E9-D54E-B071-461EE244BFB9}" uniqueName="10" name="Part Number" queryTableFieldId="9" dataDxfId="2"/>
+    <tableColumn id="12" xr3:uid="{293B0DE3-5DB9-1A46-B723-524F43C07AEA}" uniqueName="12" name="Technology" queryTableFieldId="11" dataDxfId="1"/>
+    <tableColumn id="13" xr3:uid="{96A7178E-62FE-034D-A2B5-F73C14C43D32}" uniqueName="13" name="Do Not Fit?" queryTableFieldId="12" dataDxfId="0"/>
+    <tableColumn id="6" xr3:uid="{3A9D6906-A01C-C843-B1BD-6DA0D752C686}" uniqueName="6" name="Supplier" queryTableFieldId="6" dataDxfId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -788,10 +796,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D374F151-C693-AC4F-B5B9-A11B484F9E1A}">
-  <dimension ref="A1:H28"/>
+  <dimension ref="A1:I28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -801,11 +809,11 @@
     <col min="3" max="3" width="52.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="22.6640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="47.33203125" customWidth="1"/>
-    <col min="7" max="7" width="19.5" customWidth="1"/>
-    <col min="8" max="8" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="19.5" customWidth="1"/>
+    <col min="9" max="9" width="16.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -828,10 +836,13 @@
         <v>86</v>
       </c>
       <c r="H1" t="s">
+        <v>97</v>
+      </c>
+      <c r="I1" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -853,11 +864,12 @@
       <c r="G2" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" s="2"/>
+      <c r="I2" s="1" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -879,11 +891,12 @@
       <c r="G3" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="H3" s="2"/>
+      <c r="I3" s="1" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -905,11 +918,12 @@
       <c r="G4" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="H4" s="1"/>
+      <c r="I4" s="1" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -929,11 +943,12 @@
       <c r="G5" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="H5" s="1"/>
+      <c r="I5" s="1" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -955,11 +970,12 @@
       <c r="G6" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="H6" s="1" t="s">
+      <c r="H6" s="1"/>
+      <c r="I6" s="1" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -981,11 +997,12 @@
       <c r="G7" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="H7" s="1" t="s">
+      <c r="H7" s="1"/>
+      <c r="I7" s="1" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1007,11 +1024,12 @@
       <c r="G8" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="H8" s="1" t="s">
+      <c r="H8" s="1"/>
+      <c r="I8" s="1" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1033,11 +1051,12 @@
       <c r="G9" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="H9" s="1" t="s">
+      <c r="H9" s="1"/>
+      <c r="I9" s="1" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1059,11 +1078,12 @@
       <c r="G10" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="H10" s="1" t="s">
+      <c r="H10" s="1"/>
+      <c r="I10" s="1" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1085,11 +1105,12 @@
       <c r="G11" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="H11" s="1" t="s">
+      <c r="H11" s="1"/>
+      <c r="I11" s="1" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>12</v>
       </c>
@@ -1109,11 +1130,12 @@
       <c r="G12" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="H12" s="1" t="s">
+      <c r="H12" s="1"/>
+      <c r="I12" s="1" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>13</v>
       </c>
@@ -1135,11 +1157,12 @@
       <c r="G13" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="H13" s="1" t="s">
+      <c r="H13" s="1"/>
+      <c r="I13" s="1" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>14</v>
       </c>
@@ -1161,11 +1184,12 @@
       <c r="G14" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="H14" s="1" t="s">
+      <c r="H14" s="1"/>
+      <c r="I14" s="1" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>15</v>
       </c>
@@ -1185,11 +1209,12 @@
       <c r="G15" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="H15" s="1" t="s">
+      <c r="H15" s="1"/>
+      <c r="I15" s="1" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>16</v>
       </c>
@@ -1212,8 +1237,9 @@
       <c r="H16" s="1" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I16" s="1"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>18</v>
       </c>
@@ -1235,11 +1261,12 @@
       <c r="G17" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="H17" s="1" t="s">
+      <c r="H17" s="1"/>
+      <c r="I17" s="1" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>19</v>
       </c>
@@ -1259,13 +1286,14 @@
         <v>89</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H18" s="1" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I18" s="1"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>20</v>
       </c>
@@ -1283,13 +1311,14 @@
       </c>
       <c r="F19" s="1"/>
       <c r="G19" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H19" s="1" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I19" s="1"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>21</v>
       </c>
@@ -1309,11 +1338,12 @@
       <c r="G20" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="H20" s="1" t="s">
+      <c r="H20" s="1"/>
+      <c r="I20" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>22</v>
       </c>
@@ -1335,11 +1365,12 @@
       <c r="G21" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="H21" s="1" t="s">
+      <c r="H21" s="1"/>
+      <c r="I21" s="1" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>23</v>
       </c>
@@ -1361,11 +1392,12 @@
       <c r="G22" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="H22" s="1" t="s">
+      <c r="H22" s="1"/>
+      <c r="I22" s="1" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>24</v>
       </c>
@@ -1387,11 +1419,12 @@
       <c r="G23" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="H23" s="1" t="s">
+      <c r="H23" s="1"/>
+      <c r="I23" s="1" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>25</v>
       </c>
@@ -1411,11 +1444,10 @@
       <c r="G24" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="H24" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>26</v>
       </c>
@@ -1437,11 +1469,12 @@
       <c r="G25" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="H25" s="1" t="s">
+      <c r="H25" s="1"/>
+      <c r="I25" s="1" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>27</v>
       </c>
@@ -1463,11 +1496,12 @@
       <c r="G26" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="H26" s="1" t="s">
+      <c r="H26" s="1"/>
+      <c r="I26" s="1" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>28</v>
       </c>
@@ -1489,11 +1523,12 @@
       <c r="G27" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="H27" s="1" t="s">
+      <c r="H27" s="1"/>
+      <c r="I27" s="1" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>29</v>
       </c>
@@ -1515,7 +1550,8 @@
       <c r="G28" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="H28" s="1" t="s">
+      <c r="H28" s="1"/>
+      <c r="I28" s="1" t="s">
         <v>95</v>
       </c>
     </row>

--- a/hardware/uob-hep-pc068a-cryosub/cryosub_power_converter_top_v03/cryosub_power_converter_top_bom_v03.xlsx
+++ b/hardware/uob-hep-pc068a-cryosub/cryosub_power_converter_top_v03/cryosub_power_converter_top_bom_v03.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/phdgc/Documents/DUNE/cryosub/hardware/uob-hep-pc068a-cryosub/cryosub_power_converter_top_v03/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{818D1CB3-4AA2-8B47-913E-E748ED156772}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7709C51F-3E18-734C-9E37-E10163C625EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1080" yWindow="2860" windowWidth="27240" windowHeight="15020" xr2:uid="{7AE3736D-B4A5-1241-AD38-3A07FD10F958}"/>
   </bookViews>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="99">
   <si>
     <t>Id</t>
   </si>
@@ -75,12 +75,6 @@
     <t>Q3</t>
   </si>
   <si>
-    <t>TO-252-3_TabPin2</t>
-  </si>
-  <si>
-    <t>AOD413A</t>
-  </si>
-  <si>
     <t>U1</t>
   </si>
   <si>
@@ -93,9 +87,6 @@
     <t>SOT-23</t>
   </si>
   <si>
-    <t>IRLML2402TRPBF</t>
-  </si>
-  <si>
     <t>C6,C9,C13,C7,C14</t>
   </si>
   <si>
@@ -273,15 +264,9 @@
     <t>Murata GRM21BR61E226ME44K , Farnell 3790439</t>
   </si>
   <si>
-    <t>No STOCK!!!</t>
-  </si>
-  <si>
     <t>0603-22nF-50V</t>
   </si>
   <si>
-    <t>Farnell</t>
-  </si>
-  <si>
     <t>0603-1K</t>
   </si>
   <si>
@@ -340,6 +325,24 @@
   </si>
   <si>
     <t>Do Not Fit?</t>
+  </si>
+  <si>
+    <t>SiS407DN-T1-GE3</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> PowerPAK 1212-8</t>
+  </si>
+  <si>
+    <t>Farnell 1859001</t>
+  </si>
+  <si>
+    <t>IRLML2803</t>
+  </si>
+  <si>
+    <t>Farnell 9102701</t>
+  </si>
+  <si>
+    <t>Farnell 1667672</t>
   </si>
 </sst>
 </file>
@@ -799,7 +802,7 @@
   <dimension ref="A1:I28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -827,19 +830,19 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G1" t="s">
+        <v>81</v>
+      </c>
+      <c r="H1" t="s">
+        <v>92</v>
+      </c>
+      <c r="I1" t="s">
         <v>60</v>
-      </c>
-      <c r="G1" t="s">
-        <v>86</v>
-      </c>
-      <c r="H1" t="s">
-        <v>97</v>
-      </c>
-      <c r="I1" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
@@ -856,17 +859,17 @@
         <v>2</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="H2" s="2"/>
       <c r="I2" s="1" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
@@ -883,17 +886,17 @@
         <v>4</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="H3" s="2"/>
       <c r="I3" s="1" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
@@ -904,23 +907,23 @@
         <v>8</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>9</v>
+        <v>94</v>
       </c>
       <c r="D4">
         <v>1</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>10</v>
+        <v>93</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>77</v>
+        <v>95</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="H4" s="1"/>
       <c r="I4" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
@@ -928,24 +931,24 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D5">
         <v>1</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="H5" s="1"/>
       <c r="I5" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
@@ -953,26 +956,26 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D6">
         <v>2</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>15</v>
+        <v>96</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="H6" s="1"/>
       <c r="I6" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
@@ -980,26 +983,26 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D7">
         <v>5</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="H7" s="1"/>
       <c r="I7" s="1" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
@@ -1007,26 +1010,26 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D8">
         <v>5</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="H8" s="1"/>
       <c r="I8" s="1" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
@@ -1034,26 +1037,26 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D9">
         <v>5</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="H9" s="1"/>
       <c r="I9" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
@@ -1061,7 +1064,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>5</v>
@@ -1070,17 +1073,17 @@
         <v>1</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="H10" s="1"/>
       <c r="I10" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
@@ -1088,26 +1091,26 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D11">
         <v>3</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="H11" s="1"/>
       <c r="I11" s="1" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
@@ -1115,24 +1118,24 @@
         <v>12</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D12">
         <v>1</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="F12" s="1"/>
       <c r="G12" s="1" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="H12" s="1"/>
       <c r="I12" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
@@ -1140,26 +1143,26 @@
         <v>13</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D13">
         <v>2</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="H13" s="1"/>
       <c r="I13" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
@@ -1167,26 +1170,26 @@
         <v>14</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D14">
         <v>5</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="H14" s="1"/>
       <c r="I14" s="1" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
@@ -1194,24 +1197,24 @@
         <v>15</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D15">
         <v>1</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F15" s="1"/>
       <c r="G15" s="1" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="H15" s="1"/>
       <c r="I15" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
@@ -1219,23 +1222,23 @@
         <v>16</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D16">
         <v>1</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F16" s="1"/>
       <c r="G16" s="1" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="I16" s="1"/>
     </row>
@@ -1244,26 +1247,26 @@
         <v>18</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D17">
         <v>3</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="H17" s="1"/>
       <c r="I17" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
@@ -1271,25 +1274,25 @@
         <v>19</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D18">
         <v>1</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="I18" s="1"/>
     </row>
@@ -1298,23 +1301,23 @@
         <v>20</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D19">
         <v>3</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F19" s="1"/>
       <c r="G19" s="1" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="I19" s="1"/>
     </row>
@@ -1323,22 +1326,24 @@
         <v>21</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D20">
         <v>1</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F20" s="1"/>
       <c r="G20" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="H20" s="1"/>
+        <v>83</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>69</v>
+      </c>
       <c r="I20" s="1" t="s">
         <v>6</v>
       </c>
@@ -1348,26 +1353,26 @@
         <v>22</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D21">
         <v>3</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="H21" s="1"/>
       <c r="I21" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
@@ -1375,7 +1380,7 @@
         <v>23</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>5</v>
@@ -1384,17 +1389,17 @@
         <v>2</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="H22" s="1"/>
       <c r="I22" s="1" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
@@ -1402,7 +1407,7 @@
         <v>24</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>5</v>
@@ -1411,17 +1416,17 @@
         <v>2</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="H23" s="1"/>
       <c r="I23" s="1" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
@@ -1429,49 +1434,53 @@
         <v>25</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D24">
         <v>1</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="F24" s="1"/>
+        <v>51</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>98</v>
+      </c>
       <c r="G24" s="1" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="H24" s="1"/>
-      <c r="I24" s="1"/>
+      <c r="I24" s="1" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>26</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D25">
         <v>1</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="H25" s="1"/>
       <c r="I25" s="1" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
@@ -1479,26 +1488,26 @@
         <v>27</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D26">
         <v>1</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="H26" s="1"/>
       <c r="I26" s="1" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
@@ -1506,26 +1515,26 @@
         <v>28</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D27">
         <v>1</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="H27" s="1"/>
       <c r="I27" s="1" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
@@ -1533,7 +1542,7 @@
         <v>29</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>5</v>
@@ -1542,17 +1551,17 @@
         <v>1</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="H28" s="1"/>
       <c r="I28" s="1" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>

--- a/hardware/uob-hep-pc068a-cryosub/cryosub_power_converter_top_v03/cryosub_power_converter_top_bom_v03.xlsx
+++ b/hardware/uob-hep-pc068a-cryosub/cryosub_power_converter_top_v03/cryosub_power_converter_top_bom_v03.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/phdgc/Documents/DUNE/cryosub/hardware/uob-hep-pc068a-cryosub/cryosub_power_converter_top_v03/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7709C51F-3E18-734C-9E37-E10163C625EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22111F86-A6C7-A84C-8C3F-A2AFC22F23E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1080" yWindow="2860" windowWidth="27240" windowHeight="15020" xr2:uid="{7AE3736D-B4A5-1241-AD38-3A07FD10F958}"/>
   </bookViews>

--- a/hardware/uob-hep-pc068a-cryosub/cryosub_power_converter_top_v03/cryosub_power_converter_top_bom_v03.xlsx
+++ b/hardware/uob-hep-pc068a-cryosub/cryosub_power_converter_top_v03/cryosub_power_converter_top_bom_v03.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/phdgc/Documents/DUNE/cryosub/hardware/uob-hep-pc068a-cryosub/cryosub_power_converter_top_v03/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22111F86-A6C7-A84C-8C3F-A2AFC22F23E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3682E82A-6C19-E349-AFA6-287BE080A246}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="2860" windowWidth="27240" windowHeight="15020" xr2:uid="{7AE3736D-B4A5-1241-AD38-3A07FD10F958}"/>
+    <workbookView xWindow="420" yWindow="500" windowWidth="27240" windowHeight="15020" xr2:uid="{7AE3736D-B4A5-1241-AD38-3A07FD10F958}"/>
   </bookViews>
   <sheets>
     <sheet name="cryosub_power_converter_top_bom" sheetId="2" r:id="rId1"/>
